--- a/test_bookChap_config.xlsx
+++ b/test_bookChap_config.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\PROYECTOS\2021 - Green Deal - STORIES\WP3\WP3.2 WG1\t32-ref-case-dev\test_bookChap_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC1F56F-A93D-4913-AC5E-7998D6395F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE1401-8B63-4994-83D9-1E76967A19DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
     <sheet name="CONFIG" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ciemat</author>
   </authors>
   <commentList>
-    <comment ref="D32" authorId="0">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M35" authorId="0">
+    <comment ref="M35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0">
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0">
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0">
+    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0">
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -249,12 +249,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ciemat</author>
   </authors>
   <commentList>
-    <comment ref="N25" authorId="0">
+    <comment ref="N25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0">
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P27" authorId="0">
+    <comment ref="P27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q27" authorId="0">
+    <comment ref="Q27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W27" authorId="0">
+    <comment ref="W27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z27" authorId="0">
+    <comment ref="Z27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P28" authorId="0">
+    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W28" authorId="0">
+    <comment ref="W28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1507" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="208">
   <si>
     <t>NAME</t>
   </si>
@@ -1104,8 +1104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,7 +1191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444716"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1347,92 +1347,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1440,571 +1438,571 @@
   <dxfs count="57">
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049378948332163"/>
+          <bgColor theme="0" tint="-4.9348429822687459E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667074"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.049287392803735"/>
+          <bgColor theme="0" tint="-4.925687429425947E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2022,7 +2020,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2139,7 +2137,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2163,9 +2161,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2189,7 +2187,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2224,7 +2222,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2242,7 +2240,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2267,7 +2265,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2290,18 +2288,18 @@
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="true"/>
-    <col min="2" max="2" width="28.140625" style="41" customWidth="true"/>
-    <col min="3" max="3" width="40.42578125" customWidth="true"/>
-    <col min="4" max="4" width="18.7109375" customWidth="true"/>
-    <col min="6" max="8" width="8.42578125" customWidth="true"/>
-    <col min="9" max="9" width="9.42578125" customWidth="true"/>
-    <col min="10" max="22" width="8.42578125" customWidth="true"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="6" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="22" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2331,7 @@
       <c r="U1" s="66"/>
       <c r="V1" s="66"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" s="5" customFormat="true" ht="15" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2342,7 @@
       <c r="I2" s="9"/>
       <c r="Q2" s="10"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" s="11" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" s="18" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
@@ -2458,7 +2456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" s="18" customFormat="true" ht="6" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="E5" s="19"/>
       <c r="F5" s="26"/>
@@ -2467,7 +2465,7 @@
       <c r="I5" s="29"/>
       <c r="Q5" s="30"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" s="5" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>37</v>
       </c>
@@ -2479,7 +2477,7 @@
       <c r="I6" s="9"/>
       <c r="Q6" s="10"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>38</v>
       </c>
@@ -2539,7 +2537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
         <v>42</v>
       </c>
@@ -2599,7 +2597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>44</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" s="18" customFormat="true" ht="6" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
       <c r="E10" s="19"/>
       <c r="F10" s="26"/>
@@ -2668,7 +2666,7 @@
       <c r="I10" s="29"/>
       <c r="Q10" s="30"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" s="5" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>46</v>
       </c>
@@ -2679,7 +2677,7 @@
       <c r="I11" s="9"/>
       <c r="Q11" s="10"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
         <v>47</v>
       </c>
@@ -2739,7 +2737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>45</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" s="18" customFormat="true" ht="6" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="E14" s="19"/>
       <c r="F14" s="26"/>
@@ -2808,7 +2806,7 @@
       <c r="I14" s="29"/>
       <c r="Q14" s="30"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" s="5" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>50</v>
       </c>
@@ -2822,7 +2820,7 @@
       <c r="I15" s="9"/>
       <c r="Q15" s="10"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
         <v>52</v>
       </c>
@@ -2890,7 +2888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
       <c r="B17" s="33" t="s">
         <v>57</v>
@@ -2956,7 +2954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
       <c r="B18" s="33" t="s">
         <v>60</v>
@@ -3022,7 +3020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
       <c r="B19" s="33" t="s">
         <v>63</v>
@@ -3085,7 +3083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
       <c r="B20" s="33" t="s">
         <v>65</v>
@@ -3148,7 +3146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="62" t="s">
         <v>67</v>
       </c>
@@ -3216,7 +3214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
       <c r="B22" s="33" t="s">
         <v>71</v>
@@ -3282,7 +3280,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
       <c r="B23" s="33" t="s">
         <v>74</v>
@@ -3348,7 +3346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
       <c r="B24" s="33" t="s">
         <v>77</v>
@@ -3414,7 +3412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
       <c r="B25" s="33" t="s">
         <v>79</v>
@@ -3480,7 +3478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" s="18" customFormat="true" ht="6" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" s="18" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="E26" s="19"/>
       <c r="F26" s="26"/>
@@ -3489,7 +3487,7 @@
       <c r="I26" s="29"/>
       <c r="Q26" s="30"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" s="5" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>80</v>
       </c>
@@ -3503,7 +3501,7 @@
       <c r="I27" s="9"/>
       <c r="Q27" s="10"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3568,7 +3566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="32">
         <v>1</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="32">
         <v>2</v>
       </c>
@@ -3704,7 +3702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="32">
         <v>3</v>
       </c>
@@ -3772,7 +3770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="32">
         <v>4</v>
       </c>
@@ -3840,7 +3838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="32">
         <v>5</v>
       </c>
@@ -3908,7 +3906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="32">
         <v>6</v>
       </c>
@@ -3976,7 +3974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="32">
         <v>7</v>
       </c>
@@ -4044,7 +4042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="32">
         <v>8</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="32">
         <v>9</v>
       </c>
@@ -4180,7 +4178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="32">
         <v>10</v>
       </c>
@@ -4248,7 +4246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="39" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="32">
         <v>11</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="32">
         <v>12</v>
       </c>
@@ -4384,7 +4382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="32">
         <v>13</v>
       </c>
@@ -4452,7 +4450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="42" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="32">
         <v>14</v>
       </c>
@@ -4520,7 +4518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="32">
         <v>15</v>
       </c>
@@ -4588,7 +4586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="44" s="32" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="32">
         <v>16</v>
       </c>
@@ -4653,7 +4651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="45" s="18" customFormat="true" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>17</v>
       </c>
@@ -4719,7 +4717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>18</v>
       </c>
@@ -4905,8 +4903,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4914,27 +4912,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2050022-C918-44FB-8C3F-4B114C528020}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="true"/>
-    <col min="3" max="3" width="12.5703125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" style="45" customWidth="true"/>
-    <col min="5" max="6" width="5.42578125" style="45" customWidth="true"/>
-    <col min="7" max="10" width="6.140625" style="45" customWidth="true"/>
-    <col min="11" max="17" width="12.7109375" style="45" customWidth="true"/>
-    <col min="18" max="18" width="15.28515625" style="45" customWidth="true"/>
-    <col min="19" max="19" width="12.7109375" style="45" customWidth="true"/>
-    <col min="20" max="20" width="14.7109375" style="45" customWidth="true"/>
-    <col min="21" max="24" width="12.7109375" style="45" customWidth="true"/>
-    <col min="25" max="25" width="11.85546875" style="45" customWidth="true"/>
-    <col min="26" max="26" width="12.7109375" style="45" customWidth="true"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="45" customWidth="1"/>
+    <col min="5" max="6" width="5.42578125" style="45" customWidth="1"/>
+    <col min="7" max="10" width="6.140625" style="45" customWidth="1"/>
+    <col min="11" max="17" width="12.7109375" style="45" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="45" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="45" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="45" customWidth="1"/>
+    <col min="21" max="24" width="12.7109375" style="45" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" style="45" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5012,7 +5010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>42</v>
       </c>
@@ -5087,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>118</v>
       </c>
@@ -5257,7 +5255,7 @@
         <v>thNET</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>119</v>
       </c>
@@ -5348,7 +5346,7 @@
         <v>CT_8</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>120</v>
       </c>
@@ -5423,7 +5421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" s="47" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
@@ -5498,7 +5496,7 @@
         <v>139</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5573,7 +5571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>46</v>
       </c>
@@ -5649,7 +5647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" ht="15.75" thickTop="true" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -5738,7 +5736,7 @@
         <v>ctrlSYS/Ctbu - TCp</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>141</v>
       </c>
@@ -5820,7 +5818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>142</v>
       </c>
@@ -5899,7 +5897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>143</v>
       </c>
@@ -5976,7 +5974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>145</v>
       </c>
@@ -6053,7 +6051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>146</v>
       </c>
@@ -6098,7 +6096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>147</v>
       </c>
@@ -6166,7 +6164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>148</v>
       </c>
@@ -6234,7 +6232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
@@ -6296,7 +6294,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54"/>
       <c r="B19" s="54" t="s">
         <v>150</v>
@@ -6372,7 +6370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" ht="15.75" thickTop="true" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -6453,7 +6451,7 @@
       </c>
       <c r="AB20" s="45"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>154</v>
       </c>
@@ -6530,7 +6528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>155</v>
       </c>
@@ -6608,7 +6606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>156</v>
       </c>
@@ -6685,7 +6683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>157</v>
       </c>
@@ -6762,7 +6760,7 @@
         <v>160</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>164</v>
       </c>
@@ -6819,7 +6817,7 @@
       </c>
       <c r="R25" s="45">
         <f>R26*R36</f>
-        <v>531.25</v>
+        <v>9265</v>
       </c>
       <c r="S25" s="45">
         <f t="shared" ref="S25:T25" si="10">S26*S36</f>
@@ -6827,7 +6825,7 @@
       </c>
       <c r="T25" s="45">
         <f t="shared" si="10"/>
-        <v>312.5</v>
+        <v>650</v>
       </c>
       <c r="U25" s="46">
         <v>1</v>
@@ -6849,7 +6847,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>165</v>
       </c>
@@ -6928,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>166</v>
       </c>
@@ -7005,7 +7003,7 @@
         <v>206</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>167</v>
       </c>
@@ -7082,7 +7080,7 @@
         <v>207</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>168</v>
       </c>
@@ -7159,7 +7157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>174</v>
       </c>
@@ -7236,7 +7234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>178</v>
       </c>
@@ -7313,7 +7311,7 @@
         <v>192</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>181</v>
       </c>
@@ -7390,7 +7388,7 @@
         <v>176</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>182</v>
       </c>
@@ -7467,7 +7465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>184</v>
       </c>
@@ -7544,7 +7542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>185</v>
       </c>
@@ -7621,7 +7619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>186</v>
       </c>
@@ -7698,7 +7696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>188</v>
       </c>
@@ -7775,7 +7773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>194</v>
       </c>
@@ -7852,7 +7850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -8042,7 +8040,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>